--- a/Bridge and Road.xlsx
+++ b/Bridge and Road.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SANJEEV BASHYAL\Desktop\Survey Camp 2076\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{369B072F-B428-4619-81B3-DDA2E8F03917}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F45DAD-CADF-4EEC-8D75-94CFDB0ADA59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bridge site triangulation" sheetId="3" r:id="rId1"/>
     <sheet name="triangle length and angles" sheetId="7" r:id="rId2"/>
     <sheet name="bridge detail" sheetId="2" r:id="rId3"/>
     <sheet name="RA" sheetId="1" r:id="rId4"/>
+    <sheet name="Road Levelling" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="151">
   <si>
     <t>line</t>
   </si>
@@ -350,6 +351,147 @@
   <si>
     <t>Precision</t>
   </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>Right
+Offset</t>
+  </si>
+  <si>
+    <t>Levelling for L-Section and X-Section</t>
+  </si>
+  <si>
+    <t>Left
+Offset</t>
+  </si>
+  <si>
+    <t>Centre Line
+Chainage</t>
+  </si>
+  <si>
+    <t>BS</t>
+  </si>
+  <si>
+    <t>FS</t>
+  </si>
+  <si>
+    <t>IS</t>
+  </si>
+  <si>
+    <t>HI</t>
+  </si>
+  <si>
+    <t>Reduced
+Level</t>
+  </si>
+  <si>
+    <t>BM2</t>
+  </si>
+  <si>
+    <t>0+000</t>
+  </si>
+  <si>
+    <t>0+015</t>
+  </si>
+  <si>
+    <t>0+030</t>
+  </si>
+  <si>
+    <t>TP1</t>
+  </si>
+  <si>
+    <t>BPC1</t>
+  </si>
+  <si>
+    <t>0+0412</t>
+  </si>
+  <si>
+    <t>MPC1</t>
+  </si>
+  <si>
+    <t>0+062.1</t>
+  </si>
+  <si>
+    <t>TP2</t>
+  </si>
+  <si>
+    <t>TP3</t>
+  </si>
+  <si>
+    <t>EBC1</t>
+  </si>
+  <si>
+    <t>0+083</t>
+  </si>
+  <si>
+    <t>0+090</t>
+  </si>
+  <si>
+    <t>BPC2</t>
+  </si>
+  <si>
+    <t>MPC2</t>
+  </si>
+  <si>
+    <t>TP4</t>
+  </si>
+  <si>
+    <t>EPC2</t>
+  </si>
+  <si>
+    <t>Reciprocal Levelling</t>
+  </si>
+  <si>
+    <t>Instrument</t>
+  </si>
+  <si>
+    <t>Sighted 
+to</t>
+  </si>
+  <si>
+    <t>Staff Readings (m)</t>
+  </si>
+  <si>
+    <t>True Height
+Difference</t>
+  </si>
+  <si>
+    <t>Top</t>
+  </si>
+  <si>
+    <t>Mid</t>
+  </si>
+  <si>
+    <t>Bottom</t>
+  </si>
+  <si>
+    <t>When instrument is at near one peg:</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>When instrument is very near to A:</t>
+  </si>
+  <si>
+    <t>Near to A</t>
+  </si>
+  <si>
+    <t>True Height Difference</t>
+  </si>
+  <si>
+    <t>0+144.2</t>
+  </si>
+  <si>
+    <t>0+123.2</t>
+  </si>
+  <si>
+    <t>0+102.3</t>
+  </si>
+  <si>
+    <t>0+224</t>
+  </si>
 </sst>
 </file>
 
@@ -359,7 +501,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -426,8 +568,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -494,8 +643,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -503,11 +658,88 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -567,10 +799,13 @@
     <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -582,7 +817,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -594,22 +829,16 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -623,9 +852,54 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -971,7 +1245,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="AE7" sqref="AE7"/>
     </sheetView>
   </sheetViews>
@@ -986,122 +1260,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="34" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="R1" s="65" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="R1" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
     </row>
     <row r="2" spans="1:26" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52" t="s">
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52" t="s">
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="O2" s="52" t="s">
+      <c r="O2" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="R2" s="52" t="s">
+      <c r="R2" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="S2" s="52" t="s">
+      <c r="S2" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="T2" s="52" t="s">
+      <c r="T2" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="U2" s="52" t="s">
+      <c r="U2" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52" t="s">
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:26" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52" t="s">
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
       <c r="G3" s="33"/>
       <c r="H3" s="33"/>
-      <c r="I3" s="52" t="s">
+      <c r="I3" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
       <c r="L3" s="33"/>
       <c r="M3" s="33"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52" t="s">
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="V3" s="52"/>
-      <c r="W3" s="52"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
       <c r="X3" s="33"/>
-      <c r="Y3" s="52" t="s">
+      <c r="Y3" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="Z3" s="52"/>
+      <c r="Z3" s="51"/>
     </row>
     <row r="4" spans="1:26" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="32" t="s">
         <v>7</v>
       </c>
@@ -1120,11 +1394,11 @@
       <c r="K4" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
       <c r="U4" s="32" t="s">
         <v>7</v>
       </c>
@@ -1134,14 +1408,14 @@
       <c r="W4" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="Y4" s="52"/>
-      <c r="Z4" s="52"/>
+      <c r="Y4" s="51"/>
+      <c r="Z4" s="51"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="52" t="s">
         <v>57</v>
       </c>
       <c r="C5" t="s">
@@ -1160,7 +1434,7 @@
         <f>D5+E5/60+F5/3600</f>
         <v>0</v>
       </c>
-      <c r="H5" s="53"/>
+      <c r="H5" s="54"/>
       <c r="I5">
         <v>90</v>
       </c>
@@ -1174,11 +1448,11 @@
         <f>I5+J5/60+K5/3600</f>
         <v>90</v>
       </c>
-      <c r="M5" s="53"/>
-      <c r="R5" s="59" t="s">
+      <c r="M5" s="54"/>
+      <c r="R5" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="S5" s="59" t="s">
+      <c r="S5" s="60" t="s">
         <v>58</v>
       </c>
       <c r="T5" s="39" t="s">
@@ -1197,12 +1471,12 @@
         <f>U5+V5/60+W5/3600</f>
         <v>0</v>
       </c>
-      <c r="Y5" s="60"/>
-      <c r="Z5" s="60"/>
+      <c r="Y5" s="57"/>
+      <c r="Z5" s="57"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="56"/>
-      <c r="B6" s="56"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="52"/>
       <c r="C6" t="s">
         <v>69</v>
       </c>
@@ -1219,7 +1493,7 @@
         <f t="shared" ref="G6:G24" si="0">D6+E6/60+F6/3600</f>
         <v>180.0011111111111</v>
       </c>
-      <c r="H6" s="53"/>
+      <c r="H6" s="54"/>
       <c r="I6">
         <v>269</v>
       </c>
@@ -1233,9 +1507,9 @@
         <f t="shared" ref="L6:L24" si="1">I6+J6/60+K6/3600</f>
         <v>269.99833333333333</v>
       </c>
-      <c r="M6" s="53"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
+      <c r="M6" s="54"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="60"/>
       <c r="T6" s="39" t="s">
         <v>69</v>
       </c>
@@ -1252,12 +1526,12 @@
         <f t="shared" ref="X6:X20" si="2">U6+V6/60+W6/3600</f>
         <v>180.00666666666666</v>
       </c>
-      <c r="Y6" s="60"/>
-      <c r="Z6" s="60"/>
+      <c r="Y6" s="57"/>
+      <c r="Z6" s="57"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="56"/>
-      <c r="B7" s="56" t="s">
+      <c r="A7" s="52"/>
+      <c r="B7" s="52" t="s">
         <v>21</v>
       </c>
       <c r="C7" t="s">
@@ -1276,7 +1550,7 @@
         <f t="shared" si="0"/>
         <v>87.527777777777771</v>
       </c>
-      <c r="H7" s="53">
+      <c r="H7" s="54">
         <f>AVERAGE((IF(G8&gt;G6,(G8-G6),(G8+360-G6))),(G7-G5))</f>
         <v>87.528055555555554</v>
       </c>
@@ -1293,20 +1567,20 @@
         <f t="shared" si="1"/>
         <v>177.52833333333334</v>
       </c>
-      <c r="M7" s="53">
+      <c r="M7" s="54">
         <f>AVERAGE((IF(L8&gt;L6,(L8-L6),(L8+360-L6))),(L7-L5))</f>
         <v>87.528611111111118</v>
       </c>
-      <c r="N7" s="54">
+      <c r="N7" s="55">
         <f>AVERAGE(M7,H7)</f>
         <v>87.528333333333336</v>
       </c>
-      <c r="O7" s="54">
+      <c r="O7" s="55">
         <f>N7+$I$30</f>
         <v>87.529166666666669</v>
       </c>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59" t="s">
+      <c r="R7" s="60"/>
+      <c r="S7" s="60" t="s">
         <v>60</v>
       </c>
       <c r="T7" s="39" t="s">
@@ -1325,18 +1599,18 @@
         <f t="shared" si="2"/>
         <v>66.1875</v>
       </c>
-      <c r="Y7" s="60">
+      <c r="Y7" s="57">
         <f>AVERAGE((IF(X8&gt;X6,(X8-X6),(X8+360-X6))),(X7-X5))</f>
         <v>66.186388888888899</v>
       </c>
-      <c r="Z7" s="60">
+      <c r="Z7" s="57">
         <f>Y7+$I$33</f>
         <v>66.187129629629638</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="56"/>
-      <c r="B8" s="56"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="52"/>
       <c r="C8" t="s">
         <v>69</v>
       </c>
@@ -1353,7 +1627,7 @@
         <f t="shared" si="0"/>
         <v>267.52944444444444</v>
       </c>
-      <c r="H8" s="53"/>
+      <c r="H8" s="54"/>
       <c r="I8">
         <v>357</v>
       </c>
@@ -1367,11 +1641,11 @@
         <f t="shared" si="1"/>
         <v>357.52722222222224</v>
       </c>
-      <c r="M8" s="53"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55"/>
-      <c r="R8" s="59"/>
-      <c r="S8" s="59"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="R8" s="60"/>
+      <c r="S8" s="60"/>
       <c r="T8" s="39" t="s">
         <v>69</v>
       </c>
@@ -1388,12 +1662,12 @@
         <f t="shared" si="2"/>
         <v>246.19194444444446</v>
       </c>
-      <c r="Y8" s="60"/>
-      <c r="Z8" s="60"/>
+      <c r="Y8" s="57"/>
+      <c r="Z8" s="57"/>
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="56"/>
-      <c r="B9" s="56" t="s">
+      <c r="A9" s="52"/>
+      <c r="B9" s="52" t="s">
         <v>55</v>
       </c>
       <c r="C9" t="s">
@@ -1412,7 +1686,7 @@
         <f t="shared" si="0"/>
         <v>174.98388888888888</v>
       </c>
-      <c r="H9" s="53">
+      <c r="H9" s="54">
         <f t="shared" ref="H9" si="3">AVERAGE((IF(G10&gt;G8,(G10-G8),(G10+360-G8))),(G9-G7))</f>
         <v>87.456944444444446</v>
       </c>
@@ -1429,22 +1703,22 @@
         <f t="shared" si="1"/>
         <v>264.98555555555555</v>
       </c>
-      <c r="M9" s="53">
+      <c r="M9" s="54">
         <f>AVERAGE((IF(L10&gt;L8,(L10-L8),(L10+360-L8))),(L9-L7))</f>
         <v>87.458055555555532</v>
       </c>
-      <c r="N9" s="63">
+      <c r="N9" s="61">
         <f t="shared" ref="N9" si="4">AVERAGE(M9,H9)</f>
         <v>87.457499999999982</v>
       </c>
-      <c r="O9" s="63">
+      <c r="O9" s="61">
         <f>N9+$I$31</f>
         <v>87.458032407407401</v>
       </c>
-      <c r="R9" s="61" t="s">
+      <c r="R9" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="S9" s="61" t="s">
+      <c r="S9" s="63" t="s">
         <v>60</v>
       </c>
       <c r="T9" s="37" t="s">
@@ -1463,12 +1737,12 @@
         <f t="shared" si="2"/>
         <v>66.1875</v>
       </c>
-      <c r="Y9" s="62"/>
-      <c r="Z9" s="62"/>
+      <c r="Y9" s="64"/>
+      <c r="Z9" s="64"/>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="56"/>
-      <c r="B10" s="56"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="52"/>
       <c r="C10" t="s">
         <v>69</v>
       </c>
@@ -1485,7 +1759,7 @@
         <f t="shared" si="0"/>
         <v>354.98722222222221</v>
       </c>
-      <c r="H10" s="53"/>
+      <c r="H10" s="54"/>
       <c r="I10">
         <v>84</v>
       </c>
@@ -1499,11 +1773,11 @@
         <f t="shared" si="1"/>
         <v>84.986111111111114</v>
       </c>
-      <c r="M10" s="53"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="64"/>
-      <c r="R10" s="61"/>
-      <c r="S10" s="61"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
+      <c r="R10" s="63"/>
+      <c r="S10" s="63"/>
       <c r="T10" s="37" t="s">
         <v>69</v>
       </c>
@@ -1520,14 +1794,14 @@
         <f t="shared" si="2"/>
         <v>246.19194444444446</v>
       </c>
-      <c r="Y10" s="62"/>
-      <c r="Z10" s="62"/>
+      <c r="Y10" s="64"/>
+      <c r="Z10" s="64"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="52" t="s">
         <v>55</v>
       </c>
       <c r="C11" t="s">
@@ -1546,7 +1820,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H11" s="53"/>
+      <c r="H11" s="54"/>
       <c r="I11">
         <v>90</v>
       </c>
@@ -1560,11 +1834,11 @@
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="R11" s="61"/>
-      <c r="S11" s="61" t="s">
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="63" t="s">
         <v>21</v>
       </c>
       <c r="T11" s="37" t="s">
@@ -1583,18 +1857,18 @@
         <f t="shared" si="2"/>
         <v>119.55527777777777</v>
       </c>
-      <c r="Y11" s="62">
+      <c r="Y11" s="64">
         <f t="shared" ref="Y11" si="5">AVERAGE((IF(X12&gt;X10,(X12-X10),(X12+360-X10))),(X11-X9))</f>
         <v>53.368055555555557</v>
       </c>
-      <c r="Z11" s="62">
+      <c r="Z11" s="64">
         <f>Y11+$I$32</f>
         <v>53.369166666666665</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="56"/>
-      <c r="B12" s="56"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="52"/>
       <c r="C12" t="s">
         <v>69</v>
       </c>
@@ -1611,7 +1885,7 @@
         <f t="shared" si="0"/>
         <v>180.00333333333333</v>
       </c>
-      <c r="H12" s="53"/>
+      <c r="H12" s="54"/>
       <c r="I12">
         <v>269</v>
       </c>
@@ -1625,11 +1899,11 @@
         <f t="shared" si="1"/>
         <v>269.9977777777778</v>
       </c>
-      <c r="M12" s="53"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="56"/>
-      <c r="R12" s="61"/>
-      <c r="S12" s="61"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="R12" s="63"/>
+      <c r="S12" s="63"/>
       <c r="T12" s="37" t="s">
         <v>69</v>
       </c>
@@ -1646,12 +1920,12 @@
         <f t="shared" si="2"/>
         <v>299.5602777777778</v>
       </c>
-      <c r="Y12" s="62"/>
-      <c r="Z12" s="62"/>
+      <c r="Y12" s="64"/>
+      <c r="Z12" s="64"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="56"/>
-      <c r="B13" s="56" t="s">
+      <c r="A13" s="52"/>
+      <c r="B13" s="52" t="s">
         <v>20</v>
       </c>
       <c r="C13" t="s">
@@ -1670,7 +1944,7 @@
         <f t="shared" si="0"/>
         <v>35.226944444444449</v>
       </c>
-      <c r="H13" s="53">
+      <c r="H13" s="54">
         <f t="shared" ref="H13" si="6">AVERAGE((IF(G14&gt;G12,(G14-G12),(G14+360-G12))),(G13-G11))</f>
         <v>35.227500000000006</v>
       </c>
@@ -1687,22 +1961,22 @@
         <f t="shared" si="1"/>
         <v>125.22861111111111</v>
       </c>
-      <c r="M13" s="53">
+      <c r="M13" s="54">
         <f t="shared" ref="M13" si="7">AVERAGE((IF(L14&gt;L12,(L14-L12),(L14+360-L12))),(L13-L11))</f>
         <v>35.228055555555535</v>
       </c>
-      <c r="N13" s="63">
+      <c r="N13" s="61">
         <f t="shared" ref="N13" si="8">AVERAGE(M13,H13)</f>
         <v>35.227777777777774</v>
       </c>
-      <c r="O13" s="63">
+      <c r="O13" s="61">
         <f>N13+$I$31</f>
         <v>35.228310185185187</v>
       </c>
-      <c r="R13" s="57" t="s">
+      <c r="R13" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="S13" s="57" t="s">
+      <c r="S13" s="58" t="s">
         <v>59</v>
       </c>
       <c r="T13" s="41" t="s">
@@ -1721,12 +1995,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y13" s="58"/>
-      <c r="Z13" s="58"/>
+      <c r="Y13" s="59"/>
+      <c r="Z13" s="59"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="56"/>
-      <c r="B14" s="56"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="52"/>
       <c r="C14" t="s">
         <v>69</v>
       </c>
@@ -1743,7 +2017,7 @@
         <f t="shared" si="0"/>
         <v>215.23138888888889</v>
       </c>
-      <c r="H14" s="53"/>
+      <c r="H14" s="54"/>
       <c r="I14">
         <v>305</v>
       </c>
@@ -1757,11 +2031,11 @@
         <f t="shared" si="1"/>
         <v>305.22527777777776</v>
       </c>
-      <c r="M14" s="53"/>
-      <c r="N14" s="64"/>
-      <c r="O14" s="64"/>
-      <c r="R14" s="57"/>
-      <c r="S14" s="57"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="R14" s="58"/>
+      <c r="S14" s="58"/>
       <c r="T14" s="41" t="s">
         <v>69</v>
       </c>
@@ -1778,12 +2052,12 @@
         <f t="shared" si="2"/>
         <v>179.99916666666667</v>
       </c>
-      <c r="Y14" s="58"/>
-      <c r="Z14" s="58"/>
+      <c r="Y14" s="59"/>
+      <c r="Z14" s="59"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="56"/>
-      <c r="B15" s="56" t="s">
+      <c r="A15" s="52"/>
+      <c r="B15" s="52" t="s">
         <v>57</v>
       </c>
       <c r="C15" t="s">
@@ -1802,7 +2076,7 @@
         <f t="shared" si="0"/>
         <v>74.323888888888888</v>
       </c>
-      <c r="H15" s="53">
+      <c r="H15" s="54">
         <f t="shared" ref="H15" si="9">AVERAGE((IF(G16&gt;G14,(G16-G14),(G16+360-G14))),(G15-G13))</f>
         <v>39.097222222222214</v>
       </c>
@@ -1819,20 +2093,20 @@
         <f t="shared" si="1"/>
         <v>164.32611111111112</v>
       </c>
-      <c r="M15" s="53">
+      <c r="M15" s="54">
         <f t="shared" ref="M15" si="10">AVERAGE((IF(L16&gt;L14,(L16-L14),(L16+360-L14))),(L15-L13))</f>
         <v>39.09833333333335</v>
       </c>
-      <c r="N15" s="54">
+      <c r="N15" s="55">
         <f t="shared" ref="N15" si="11">AVERAGE(M15,H15)</f>
         <v>39.097777777777779</v>
       </c>
-      <c r="O15" s="54">
+      <c r="O15" s="55">
         <f>N15+$I$30</f>
         <v>39.098611111111111</v>
       </c>
-      <c r="R15" s="57"/>
-      <c r="S15" s="57" t="s">
+      <c r="R15" s="58"/>
+      <c r="S15" s="58" t="s">
         <v>60</v>
       </c>
       <c r="T15" s="41" t="s">
@@ -1851,18 +2125,18 @@
         <f t="shared" si="2"/>
         <v>80.162777777777777</v>
       </c>
-      <c r="Y15" s="58">
+      <c r="Y15" s="59">
         <f t="shared" ref="Y15" si="12">AVERAGE((IF(X16&gt;X14,(X16-X14),(X16+360-X14))),(X15-X13))</f>
         <v>80.162499999999994</v>
       </c>
-      <c r="Z15" s="58">
+      <c r="Z15" s="59">
         <f>Y15+$I$34</f>
         <v>80.163888888888877</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="56"/>
-      <c r="B16" s="56"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="52"/>
       <c r="C16" t="s">
         <v>69</v>
       </c>
@@ -1879,7 +2153,7 @@
         <f t="shared" si="0"/>
         <v>254.32888888888888</v>
       </c>
-      <c r="H16" s="53"/>
+      <c r="H16" s="54"/>
       <c r="I16">
         <v>344</v>
       </c>
@@ -1893,11 +2167,11 @@
         <f t="shared" si="1"/>
         <v>344.32444444444445</v>
       </c>
-      <c r="M16" s="53"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="55"/>
-      <c r="R16" s="57"/>
-      <c r="S16" s="57"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="R16" s="58"/>
+      <c r="S16" s="58"/>
       <c r="T16" s="41" t="s">
         <v>69</v>
       </c>
@@ -1914,14 +2188,14 @@
         <f t="shared" si="2"/>
         <v>260.16138888888889</v>
       </c>
-      <c r="Y16" s="58"/>
-      <c r="Z16" s="58"/>
+      <c r="Y16" s="59"/>
+      <c r="Z16" s="59"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="52" t="s">
         <v>21</v>
       </c>
       <c r="C17" t="s">
@@ -1940,7 +2214,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H17" s="53"/>
+      <c r="H17" s="54"/>
       <c r="I17">
         <v>90</v>
       </c>
@@ -1954,13 +2228,13 @@
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
-      <c r="R17" s="59" t="s">
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="R17" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="S17" s="59" t="s">
+      <c r="S17" s="60" t="s">
         <v>60</v>
       </c>
       <c r="T17" s="39" t="s">
@@ -1979,12 +2253,12 @@
         <f t="shared" si="2"/>
         <v>80.162777777777777</v>
       </c>
-      <c r="Y17" s="60"/>
-      <c r="Z17" s="60"/>
+      <c r="Y17" s="57"/>
+      <c r="Z17" s="57"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="56"/>
-      <c r="B18" s="56"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="52"/>
       <c r="C18" t="s">
         <v>69</v>
       </c>
@@ -2001,7 +2275,7 @@
         <f t="shared" si="0"/>
         <v>180.00222222222223</v>
       </c>
-      <c r="H18" s="53"/>
+      <c r="H18" s="54"/>
       <c r="I18">
         <v>270</v>
       </c>
@@ -2015,11 +2289,11 @@
         <f t="shared" si="1"/>
         <v>270.00166666666667</v>
       </c>
-      <c r="M18" s="53"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
-      <c r="R18" s="59"/>
-      <c r="S18" s="59"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
+      <c r="R18" s="60"/>
+      <c r="S18" s="60"/>
       <c r="T18" s="39" t="s">
         <v>69</v>
       </c>
@@ -2036,12 +2310,12 @@
         <f t="shared" si="2"/>
         <v>260.16138888888889</v>
       </c>
-      <c r="Y18" s="60"/>
-      <c r="Z18" s="60"/>
+      <c r="Y18" s="57"/>
+      <c r="Z18" s="57"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="56"/>
-      <c r="B19" s="56" t="s">
+      <c r="A19" s="52"/>
+      <c r="B19" s="52" t="s">
         <v>20</v>
       </c>
       <c r="C19" t="s">
@@ -2060,7 +2334,7 @@
         <f t="shared" si="0"/>
         <v>53.37222222222222</v>
       </c>
-      <c r="H19" s="53">
+      <c r="H19" s="54">
         <f t="shared" ref="H19" si="13">AVERAGE((IF(G20&gt;G18,(G20-G18),(G20+360-G18))),(G19-G17))</f>
         <v>53.371944444444445</v>
       </c>
@@ -2077,20 +2351,20 @@
         <f t="shared" si="1"/>
         <v>143.37027777777777</v>
       </c>
-      <c r="M19" s="53">
+      <c r="M19" s="54">
         <f t="shared" ref="M19" si="14">AVERAGE((IF(L20&gt;L18,(L20-L18),(L20+360-L18))),(L19-L17))</f>
         <v>53.370833333333323</v>
       </c>
-      <c r="N19" s="54">
+      <c r="N19" s="55">
         <f t="shared" ref="N19" si="15">AVERAGE(M19,H19)</f>
         <v>53.371388888888887</v>
       </c>
-      <c r="O19" s="54">
+      <c r="O19" s="55">
         <f>N19+$I$30</f>
         <v>53.37222222222222</v>
       </c>
-      <c r="R19" s="59"/>
-      <c r="S19" s="59" t="s">
+      <c r="R19" s="60"/>
+      <c r="S19" s="60" t="s">
         <v>57</v>
       </c>
       <c r="T19" s="39" t="s">
@@ -2109,18 +2383,18 @@
         <f t="shared" si="2"/>
         <v>148.69583333333333</v>
       </c>
-      <c r="Y19" s="60">
+      <c r="Y19" s="57">
         <f t="shared" ref="Y19" si="16">AVERAGE((IF(X20&gt;X18,(X20-X18),(X20+360-X18))),(X19-X17))</f>
         <v>68.532222222222231</v>
       </c>
-      <c r="Z19" s="60">
+      <c r="Z19" s="57">
         <f>Y19+$I$33</f>
         <v>68.532962962962969</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="56"/>
-      <c r="B20" s="56"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="52"/>
       <c r="C20" t="s">
         <v>69</v>
       </c>
@@ -2137,7 +2411,7 @@
         <f t="shared" si="0"/>
         <v>233.3738888888889</v>
       </c>
-      <c r="H20" s="53"/>
+      <c r="H20" s="54"/>
       <c r="I20">
         <v>323</v>
       </c>
@@ -2151,11 +2425,11 @@
         <f t="shared" si="1"/>
         <v>323.37305555555554</v>
       </c>
-      <c r="M20" s="53"/>
-      <c r="N20" s="55"/>
-      <c r="O20" s="55"/>
-      <c r="R20" s="59"/>
-      <c r="S20" s="59"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="R20" s="60"/>
+      <c r="S20" s="60"/>
       <c r="T20" s="39" t="s">
         <v>69</v>
       </c>
@@ -2172,14 +2446,14 @@
         <f t="shared" si="2"/>
         <v>328.69277777777779</v>
       </c>
-      <c r="Y20" s="60"/>
-      <c r="Z20" s="60"/>
+      <c r="Y20" s="57"/>
+      <c r="Z20" s="57"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="56" t="s">
+      <c r="A21" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="52" t="s">
         <v>20</v>
       </c>
       <c r="C21" t="s">
@@ -2198,7 +2472,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H21" s="53"/>
+      <c r="H21" s="54"/>
       <c r="I21">
         <v>90</v>
       </c>
@@ -2212,13 +2486,13 @@
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
-      <c r="R21" s="57" t="s">
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+      <c r="R21" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="S21" s="57" t="s">
+      <c r="S21" s="58" t="s">
         <v>60</v>
       </c>
       <c r="T21" s="41" t="s">
@@ -2237,12 +2511,12 @@
         <f>U21+V21/60+W21/3600</f>
         <v>0</v>
       </c>
-      <c r="Y21" s="58"/>
-      <c r="Z21" s="58"/>
+      <c r="Y21" s="59"/>
+      <c r="Z21" s="59"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="56"/>
-      <c r="B22" s="56"/>
+      <c r="A22" s="52"/>
+      <c r="B22" s="52"/>
       <c r="C22" t="s">
         <v>69</v>
       </c>
@@ -2259,7 +2533,7 @@
         <f t="shared" si="0"/>
         <v>180.0011111111111</v>
       </c>
-      <c r="H22" s="53"/>
+      <c r="H22" s="54"/>
       <c r="I22">
         <v>270</v>
       </c>
@@ -2273,11 +2547,11 @@
         <f t="shared" si="1"/>
         <v>270.005</v>
       </c>
-      <c r="M22" s="53"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="56"/>
-      <c r="R22" s="57"/>
-      <c r="S22" s="57"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="R22" s="58"/>
+      <c r="S22" s="58"/>
       <c r="T22" s="41" t="s">
         <v>69</v>
       </c>
@@ -2294,12 +2568,12 @@
         <f t="shared" ref="X22:X36" si="17">U22+V22/60+W22/3600</f>
         <v>180.00166666666667</v>
       </c>
-      <c r="Y22" s="58"/>
-      <c r="Z22" s="58"/>
+      <c r="Y22" s="59"/>
+      <c r="Z22" s="59"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="56"/>
-      <c r="B23" s="56" t="s">
+      <c r="A23" s="52"/>
+      <c r="B23" s="52" t="s">
         <v>21</v>
       </c>
       <c r="C23" t="s">
@@ -2318,7 +2592,7 @@
         <f t="shared" si="0"/>
         <v>57.31444444444444</v>
       </c>
-      <c r="H23" s="53">
+      <c r="H23" s="54">
         <f t="shared" ref="H23" si="18">AVERAGE((IF(G24&gt;G22,(G24-G22),(G24+360-G22))),(G23-G21))</f>
         <v>57.313749999999999</v>
       </c>
@@ -2335,20 +2609,20 @@
         <f t="shared" si="1"/>
         <v>147.31333333333333</v>
       </c>
-      <c r="M23" s="53">
+      <c r="M23" s="54">
         <f t="shared" ref="M23" si="19">AVERAGE((IF(L24&gt;L22,(L24-L22),(L24+360-L22))),(L23-L21))</f>
         <v>57.3125</v>
       </c>
-      <c r="N23" s="63">
+      <c r="N23" s="61">
         <f t="shared" ref="N23" si="20">AVERAGE(M23,H23)</f>
         <v>57.313124999999999</v>
       </c>
-      <c r="O23" s="63">
+      <c r="O23" s="61">
         <f>N23+$I$31</f>
         <v>57.313657407407412</v>
       </c>
-      <c r="R23" s="57"/>
-      <c r="S23" s="57" t="s">
+      <c r="R23" s="58"/>
+      <c r="S23" s="58" t="s">
         <v>58</v>
       </c>
       <c r="T23" s="41" t="s">
@@ -2367,18 +2641,18 @@
         <f t="shared" si="17"/>
         <v>73.038888888888891</v>
       </c>
-      <c r="Y23" s="58">
+      <c r="Y23" s="59">
         <f>AVERAGE((IF(X24&gt;X22,(X24-X22),(X24+360-X22))),(X23-X21))</f>
         <v>73.039722222222224</v>
       </c>
-      <c r="Z23" s="58">
+      <c r="Z23" s="59">
         <f>Y23+$I$34</f>
         <v>73.041111111111107</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="56"/>
-      <c r="B24" s="56"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="52"/>
       <c r="C24" t="s">
         <v>69</v>
       </c>
@@ -2395,7 +2669,7 @@
         <f t="shared" si="0"/>
         <v>237.31416666666667</v>
       </c>
-      <c r="H24" s="53"/>
+      <c r="H24" s="54"/>
       <c r="I24">
         <v>327</v>
       </c>
@@ -2409,11 +2683,11 @@
         <f t="shared" si="1"/>
         <v>327.31666666666666</v>
       </c>
-      <c r="M24" s="53"/>
-      <c r="N24" s="64"/>
-      <c r="O24" s="64"/>
-      <c r="R24" s="57"/>
-      <c r="S24" s="57"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="62"/>
+      <c r="R24" s="58"/>
+      <c r="S24" s="58"/>
       <c r="T24" s="41" t="s">
         <v>69</v>
       </c>
@@ -2430,15 +2704,15 @@
         <f t="shared" si="17"/>
         <v>253.04222222222222</v>
       </c>
-      <c r="Y24" s="58"/>
-      <c r="Z24" s="58"/>
+      <c r="Y24" s="59"/>
+      <c r="Z24" s="59"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B25" s="34"/>
-      <c r="R25" s="61" t="s">
+      <c r="R25" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="S25" s="61" t="s">
+      <c r="S25" s="63" t="s">
         <v>57</v>
       </c>
       <c r="T25" s="37" t="s">
@@ -2457,13 +2731,13 @@
         <f t="shared" si="17"/>
         <v>73.736666666666665</v>
       </c>
-      <c r="Y25" s="62"/>
-      <c r="Z25" s="62"/>
+      <c r="Y25" s="64"/>
+      <c r="Z25" s="64"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B26" s="34"/>
-      <c r="R26" s="61"/>
-      <c r="S26" s="61"/>
+      <c r="R26" s="63"/>
+      <c r="S26" s="63"/>
       <c r="T26" s="37" t="s">
         <v>69</v>
       </c>
@@ -2480,13 +2754,13 @@
         <f t="shared" si="17"/>
         <v>253.75</v>
       </c>
-      <c r="Y26" s="62"/>
-      <c r="Z26" s="62"/>
+      <c r="Y26" s="64"/>
+      <c r="Z26" s="64"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B27" s="34"/>
-      <c r="R27" s="61"/>
-      <c r="S27" s="61" t="s">
+      <c r="R27" s="63"/>
+      <c r="S27" s="63" t="s">
         <v>60</v>
       </c>
       <c r="T27" s="37" t="s">
@@ -2505,19 +2779,19 @@
         <f t="shared" si="17"/>
         <v>124.08361111111111</v>
       </c>
-      <c r="Y27" s="62">
+      <c r="Y27" s="64">
         <f t="shared" ref="Y27" si="21">AVERAGE((IF(X28&gt;X26,(X28-X26),(X28+360-X26))),(X27-X25))</f>
         <v>50.346111111111107</v>
       </c>
-      <c r="Z27" s="62">
+      <c r="Z27" s="64">
         <f>Y27+$I$32</f>
         <v>50.347222222222214</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B28" s="34"/>
-      <c r="R28" s="61"/>
-      <c r="S28" s="61"/>
+      <c r="R28" s="63"/>
+      <c r="S28" s="63"/>
       <c r="T28" s="37" t="s">
         <v>69</v>
       </c>
@@ -2534,8 +2808,8 @@
         <f t="shared" si="17"/>
         <v>304.09527777777777</v>
       </c>
-      <c r="Y28" s="62"/>
-      <c r="Z28" s="62"/>
+      <c r="Y28" s="64"/>
+      <c r="Z28" s="64"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="H29" t="s">
@@ -2544,10 +2818,10 @@
       <c r="I29" t="s">
         <v>75</v>
       </c>
-      <c r="R29" s="61" t="s">
+      <c r="R29" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="S29" s="61" t="s">
+      <c r="S29" s="63" t="s">
         <v>21</v>
       </c>
       <c r="T29" s="37" t="s">
@@ -2566,8 +2840,8 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Y29" s="62"/>
-      <c r="Z29" s="62"/>
+      <c r="Y29" s="64"/>
+      <c r="Z29" s="64"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="F30" s="28" t="s">
@@ -2592,8 +2866,8 @@
       <c r="K30" s="17"/>
       <c r="L30" s="17"/>
       <c r="M30" s="17"/>
-      <c r="R30" s="61"/>
-      <c r="S30" s="61"/>
+      <c r="R30" s="63"/>
+      <c r="S30" s="63"/>
       <c r="T30" s="37" t="s">
         <v>69</v>
       </c>
@@ -2610,8 +2884,8 @@
         <f t="shared" si="17"/>
         <v>180</v>
       </c>
-      <c r="Y30" s="62"/>
-      <c r="Z30" s="62"/>
+      <c r="Y30" s="64"/>
+      <c r="Z30" s="64"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="F31" s="35" t="s">
@@ -2633,8 +2907,8 @@
         <f>SUM(O9,O13,O23)</f>
         <v>180</v>
       </c>
-      <c r="R31" s="61"/>
-      <c r="S31" s="61" t="s">
+      <c r="R31" s="63"/>
+      <c r="S31" s="63" t="s">
         <v>57</v>
       </c>
       <c r="T31" s="37" t="s">
@@ -2653,11 +2927,11 @@
         <f t="shared" si="17"/>
         <v>76.282222222222217</v>
       </c>
-      <c r="Y31" s="62">
+      <c r="Y31" s="64">
         <f t="shared" ref="Y31" si="24">AVERAGE((IF(X32&gt;X30,(X32-X30),(X32+360-X30))),(X31-X29))</f>
         <v>76.282499999999999</v>
       </c>
-      <c r="Z31" s="62">
+      <c r="Z31" s="64">
         <f>Y31+$I$32</f>
         <v>76.283611111111114</v>
       </c>
@@ -2682,8 +2956,8 @@
         <f>SUM(Z11,Z27,Z31)</f>
         <v>180</v>
       </c>
-      <c r="R32" s="61"/>
-      <c r="S32" s="61"/>
+      <c r="R32" s="63"/>
+      <c r="S32" s="63"/>
       <c r="T32" s="37" t="s">
         <v>69</v>
       </c>
@@ -2700,8 +2974,8 @@
         <f t="shared" si="17"/>
         <v>256.28277777777777</v>
       </c>
-      <c r="Y32" s="62"/>
-      <c r="Z32" s="62"/>
+      <c r="Y32" s="64"/>
+      <c r="Z32" s="64"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="F33" s="39" t="s">
@@ -2723,10 +2997,10 @@
         <f>SUM(Z7,Z19,Z35)</f>
         <v>180</v>
       </c>
-      <c r="R33" s="59" t="s">
+      <c r="R33" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="S33" s="59" t="s">
+      <c r="S33" s="60" t="s">
         <v>57</v>
       </c>
       <c r="T33" s="39" t="s">
@@ -2745,8 +3019,8 @@
         <f t="shared" si="17"/>
         <v>76.282222222222217</v>
       </c>
-      <c r="Y33" s="60"/>
-      <c r="Z33" s="60"/>
+      <c r="Y33" s="57"/>
+      <c r="Z33" s="57"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="F34" s="41" t="s">
@@ -2768,8 +3042,8 @@
         <f>SUM(Z15,Z23,Z39)</f>
         <v>180</v>
       </c>
-      <c r="R34" s="59"/>
-      <c r="S34" s="59"/>
+      <c r="R34" s="60"/>
+      <c r="S34" s="60"/>
       <c r="T34" s="39" t="s">
         <v>69</v>
       </c>
@@ -2786,12 +3060,12 @@
         <f t="shared" si="17"/>
         <v>256.28277777777777</v>
       </c>
-      <c r="Y34" s="60"/>
-      <c r="Z34" s="60"/>
+      <c r="Y34" s="57"/>
+      <c r="Z34" s="57"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="R35" s="59"/>
-      <c r="S35" s="59" t="s">
+      <c r="R35" s="60"/>
+      <c r="S35" s="60" t="s">
         <v>58</v>
       </c>
       <c r="T35" s="39" t="s">
@@ -2810,18 +3084,18 @@
         <f t="shared" si="17"/>
         <v>121.56083333333333</v>
       </c>
-      <c r="Y35" s="60">
+      <c r="Y35" s="57">
         <f t="shared" ref="Y35" si="25">AVERAGE((IF(X36&gt;X34,(X36-X34),(X36+360-X34))),(X35-X33))</f>
         <v>45.279166666666676</v>
       </c>
-      <c r="Z35" s="60">
+      <c r="Z35" s="57">
         <f>Y35+$I$33</f>
         <v>45.279907407407407</v>
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="R36" s="59"/>
-      <c r="S36" s="59"/>
+      <c r="R36" s="60"/>
+      <c r="S36" s="60"/>
       <c r="T36" s="39" t="s">
         <v>69</v>
       </c>
@@ -2838,14 +3112,14 @@
         <f t="shared" si="17"/>
         <v>301.5625</v>
       </c>
-      <c r="Y36" s="60"/>
-      <c r="Z36" s="60"/>
+      <c r="Y36" s="57"/>
+      <c r="Z36" s="57"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="R37" s="57" t="s">
+      <c r="R37" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="S37" s="57" t="s">
+      <c r="S37" s="58" t="s">
         <v>58</v>
       </c>
       <c r="T37" s="41" t="s">
@@ -2864,12 +3138,12 @@
         <f t="shared" ref="X37:X40" si="26">U37+V37/60+W37/3600</f>
         <v>121.56083333333333</v>
       </c>
-      <c r="Y37" s="58"/>
-      <c r="Z37" s="58"/>
+      <c r="Y37" s="59"/>
+      <c r="Z37" s="59"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="R38" s="57"/>
-      <c r="S38" s="57"/>
+      <c r="R38" s="58"/>
+      <c r="S38" s="58"/>
       <c r="T38" s="41" t="s">
         <v>69</v>
       </c>
@@ -2886,12 +3160,12 @@
         <f t="shared" si="26"/>
         <v>301.5625</v>
       </c>
-      <c r="Y38" s="58"/>
-      <c r="Z38" s="58"/>
+      <c r="Y38" s="59"/>
+      <c r="Z38" s="59"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="R39" s="57"/>
-      <c r="S39" s="57" t="s">
+      <c r="R39" s="58"/>
+      <c r="S39" s="58" t="s">
         <v>59</v>
       </c>
       <c r="T39" s="41" t="s">
@@ -2910,11 +3184,11 @@
         <f t="shared" si="26"/>
         <v>148.35388888888889</v>
       </c>
-      <c r="Y39" s="58">
+      <c r="Y39" s="59">
         <f t="shared" ref="Y39" si="27">AVERAGE((IF(X40&gt;X38,(X40-X38),(X40+360-X38))),(X39-X37))</f>
         <v>26.793611111111119</v>
       </c>
-      <c r="Z39" s="58">
+      <c r="Z39" s="59">
         <f>Y39+$I$34</f>
         <v>26.795000000000005</v>
       </c>
@@ -2925,8 +3199,8 @@
       <c r="C40" s="16"/>
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
-      <c r="R40" s="57"/>
-      <c r="S40" s="57"/>
+      <c r="R40" s="58"/>
+      <c r="S40" s="58"/>
       <c r="T40" s="41" t="s">
         <v>69</v>
       </c>
@@ -2943,8 +3217,8 @@
         <f t="shared" si="26"/>
         <v>328.35666666666668</v>
       </c>
-      <c r="Y40" s="58"/>
-      <c r="Z40" s="58"/>
+      <c r="Y40" s="59"/>
+      <c r="Z40" s="59"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="16"/>
@@ -3104,8 +3378,14 @@
     <mergeCell ref="Z19:Z20"/>
     <mergeCell ref="Z21:Z22"/>
     <mergeCell ref="Z23:Z24"/>
-    <mergeCell ref="R1:Y1"/>
-    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="R37:R40"/>
+    <mergeCell ref="S37:S38"/>
+    <mergeCell ref="Y37:Y38"/>
+    <mergeCell ref="S39:S40"/>
+    <mergeCell ref="Y39:Y40"/>
+    <mergeCell ref="R33:R36"/>
+    <mergeCell ref="S33:S34"/>
+    <mergeCell ref="Y33:Y34"/>
     <mergeCell ref="O9:O10"/>
     <mergeCell ref="O11:O12"/>
     <mergeCell ref="O13:O14"/>
@@ -3117,14 +3397,17 @@
     <mergeCell ref="Z13:Z14"/>
     <mergeCell ref="Z15:Z16"/>
     <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="R37:R40"/>
-    <mergeCell ref="S37:S38"/>
-    <mergeCell ref="Y37:Y38"/>
-    <mergeCell ref="S39:S40"/>
-    <mergeCell ref="Y39:Y40"/>
-    <mergeCell ref="R33:R36"/>
-    <mergeCell ref="S33:S34"/>
-    <mergeCell ref="Y33:Y34"/>
+    <mergeCell ref="R13:R16"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="R9:R12"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="R5:R8"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="S7:S8"/>
     <mergeCell ref="S35:S36"/>
     <mergeCell ref="Y35:Y36"/>
     <mergeCell ref="N13:N14"/>
@@ -3149,18 +3432,6 @@
     <mergeCell ref="N23:N24"/>
     <mergeCell ref="O17:O18"/>
     <mergeCell ref="O19:O20"/>
-    <mergeCell ref="R13:R16"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="R9:R12"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="R5:R8"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="Y7:Y8"/>
     <mergeCell ref="S15:S16"/>
     <mergeCell ref="Y15:Y16"/>
     <mergeCell ref="R17:R20"/>
@@ -3174,8 +3445,14 @@
     <mergeCell ref="O21:O22"/>
     <mergeCell ref="O23:O24"/>
     <mergeCell ref="N15:N16"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M17:M18"/>
     <mergeCell ref="I2:M2"/>
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="M7:M8"/>
@@ -3185,15 +3462,8 @@
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="H21:H22"/>
     <mergeCell ref="H23:H24"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M11:M12"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="H5:H6"/>
@@ -3203,6 +3473,15 @@
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="H19:H20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="T2:T4"/>
+    <mergeCell ref="S2:S4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="A1:O1"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
@@ -3213,14 +3492,9 @@
     <mergeCell ref="R2:R4"/>
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="N7:N8"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="T2:T4"/>
-    <mergeCell ref="S2:S4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="R1:Y1"/>
+    <mergeCell ref="O7:O8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3246,38 +3520,38 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="56"/>
+      <c r="D2" s="52"/>
       <c r="E2" s="34"/>
       <c r="F2" s="34"/>
       <c r="G2" s="34"/>
-      <c r="H2" s="56" t="s">
+      <c r="H2" s="52" t="s">
         <v>98</v>
       </c>
       <c r="I2" s="34"/>
-      <c r="J2" s="56" t="s">
+      <c r="J2" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="K2" s="56"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" s="34"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
       <c r="E3" s="34"/>
-      <c r="F3" s="66" t="s">
+      <c r="F3" s="65" t="s">
         <v>102</v>
       </c>
       <c r="G3" s="34"/>
-      <c r="H3" s="56"/>
+      <c r="H3" s="52"/>
       <c r="I3" s="34"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F4" s="66"/>
+      <c r="F4" s="65"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
@@ -3593,57 +3867,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="69" t="s">
+      <c r="D1" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="68" t="s">
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="69" t="s">
+      <c r="J1" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="69" t="s">
+      <c r="K1" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="69" t="s">
+      <c r="L1" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="70" t="s">
+      <c r="M1" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="70"/>
-      <c r="O1" s="67" t="s">
+      <c r="N1" s="69"/>
+      <c r="O1" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67" t="s">
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="R1" s="67"/>
+      <c r="R1" s="66"/>
     </row>
     <row r="2" spans="1:18" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="51"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="70"/>
       <c r="F2" s="8" t="s">
         <v>7</v>
       </c>
@@ -3653,10 +3927,10 @@
       <c r="H2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
       <c r="M2" s="9" t="s">
         <v>51</v>
       </c>
@@ -19238,7 +19512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AB34"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
@@ -19246,7 +19520,7 @@
   <cols>
     <col min="3" max="3" width="14.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="3.85546875" style="69" customWidth="1"/>
+    <col min="5" max="5" width="3.85546875" style="68" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" customWidth="1"/>
     <col min="7" max="7" width="20.140625" style="3" customWidth="1"/>
     <col min="8" max="8" width="6" style="3" customWidth="1"/>
@@ -19264,58 +19538,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="69" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="69" t="s">
+      <c r="D1" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="69"/>
-      <c r="F1" s="51" t="s">
+      <c r="E1" s="68"/>
+      <c r="F1" s="70" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="69" t="s">
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="69" t="s">
+      <c r="N1" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="69" t="s">
+      <c r="O1" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="69" t="s">
+      <c r="P1" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="69" t="s">
+      <c r="Q1" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="69" t="s">
+      <c r="R1" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="69" t="s">
+      <c r="S1" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="69" t="s">
+      <c r="T1" s="68" t="s">
         <v>15</v>
       </c>
       <c r="U1" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="V1" s="51" t="s">
+      <c r="V1" s="70" t="s">
         <v>4</v>
       </c>
     </row>
@@ -19326,10 +19600,10 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="51"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="71"/>
       <c r="H2" s="4"/>
       <c r="I2" s="1" t="s">
@@ -19342,16 +19616,16 @@
         <v>9</v>
       </c>
       <c r="L2" s="7"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="69"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
       <c r="U2" s="71"/>
-      <c r="V2" s="51"/>
+      <c r="V2" s="70"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -20655,4 +20929,1858 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B052D82B-F83A-4F4B-94DC-AFDAC2D124DF}">
+  <dimension ref="B3:T265"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" style="2"/>
+    <col min="12" max="12" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B3" s="75" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="L3" s="75" t="s">
+        <v>134</v>
+      </c>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="75"/>
+      <c r="T3" s="75"/>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75"/>
+      <c r="S4" s="75"/>
+      <c r="T4" s="75"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="72" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="73" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="73" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="74" t="s">
+        <v>111</v>
+      </c>
+      <c r="G6" s="74" t="s">
+        <v>113</v>
+      </c>
+      <c r="H6" s="74" t="s">
+        <v>112</v>
+      </c>
+      <c r="I6" s="72" t="s">
+        <v>114</v>
+      </c>
+      <c r="J6" s="73" t="s">
+        <v>115</v>
+      </c>
+      <c r="L6" s="76" t="s">
+        <v>144</v>
+      </c>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="76"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="L7" s="77" t="s">
+        <v>135</v>
+      </c>
+      <c r="M7" s="78" t="s">
+        <v>136</v>
+      </c>
+      <c r="N7" s="77" t="s">
+        <v>137</v>
+      </c>
+      <c r="O7" s="77"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="R7" s="78" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1.8520000000000001</v>
+      </c>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="O8" s="79" t="s">
+        <v>140</v>
+      </c>
+      <c r="P8" s="79" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q8" s="77"/>
+      <c r="R8" s="77"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1.5269999999999999</v>
+      </c>
+      <c r="L9" s="80" t="s">
+        <v>145</v>
+      </c>
+      <c r="M9" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="82">
+        <v>1.6890000000000001</v>
+      </c>
+      <c r="O9" s="82">
+        <v>1.665</v>
+      </c>
+      <c r="P9" s="82">
+        <v>1.6439999999999999</v>
+      </c>
+      <c r="Q9" s="82">
+        <f>(N9+O9+P9)/3</f>
+        <v>1.6660000000000001</v>
+      </c>
+      <c r="R9" s="83">
+        <f>Q10-Q9</f>
+        <v>-0.52000000000000024</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1.135</v>
+      </c>
+      <c r="L10" s="84"/>
+      <c r="M10" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="86">
+        <v>1.484</v>
+      </c>
+      <c r="O10" s="86">
+        <v>1.1459999999999999</v>
+      </c>
+      <c r="P10" s="86">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="Q10" s="86">
+        <f>(N10+O10+P10)/3</f>
+        <v>1.1459999999999999</v>
+      </c>
+      <c r="R10" s="87"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.94099999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1.6919999999999999</v>
+      </c>
+      <c r="L12" s="76" t="s">
+        <v>142</v>
+      </c>
+      <c r="M12" s="76"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="76"/>
+      <c r="P12" s="76"/>
+      <c r="Q12" s="76"/>
+      <c r="R12" s="76"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="G13" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="L13" s="77" t="s">
+        <v>135</v>
+      </c>
+      <c r="M13" s="78" t="s">
+        <v>136</v>
+      </c>
+      <c r="N13" s="77" t="s">
+        <v>137</v>
+      </c>
+      <c r="O13" s="77"/>
+      <c r="P13" s="77"/>
+      <c r="Q13" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="R13" s="78" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>118</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1.8140000000000001</v>
+      </c>
+      <c r="L14" s="77"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="O14" s="79" t="s">
+        <v>140</v>
+      </c>
+      <c r="P14" s="79" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q14" s="77"/>
+      <c r="R14" s="77"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1.601</v>
+      </c>
+      <c r="L15" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="M15" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" s="82">
+        <v>1.3919999999999999</v>
+      </c>
+      <c r="O15" s="82">
+        <v>1.087</v>
+      </c>
+      <c r="P15" s="82">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="Q15" s="82">
+        <f>(N15+O15+P15)/3</f>
+        <v>1.0866666666666667</v>
+      </c>
+      <c r="R15" s="83">
+        <f>Q16-Q15</f>
+        <v>-0.47033333333333338</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="L16" s="84"/>
+      <c r="M16" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="N16" s="86">
+        <v>0.626</v>
+      </c>
+      <c r="O16" s="86">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="P16" s="86">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="Q16" s="86">
+        <f>(N16+O16+P16)/3</f>
+        <v>0.61633333333333329</v>
+      </c>
+      <c r="R16" s="87"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.16400000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1.776</v>
+      </c>
+      <c r="L18" s="88" t="s">
+        <v>146</v>
+      </c>
+      <c r="M18" s="88"/>
+      <c r="N18" s="88"/>
+      <c r="O18" s="2">
+        <f>(R9+R15)/2</f>
+        <v>-0.49516666666666681</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="G19" s="2">
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>119</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1.7549999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1.6639999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1.216</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1.7689999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>10</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1.861</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>120</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1.492</v>
+      </c>
+      <c r="H25" s="2">
+        <v>1.7410000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" t="s">
+        <v>122</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1.587</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1.121</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>10</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0.746</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>5</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1.6060000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>10</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1.6240000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" t="s">
+        <v>124</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0.90600000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0.56699999999999995</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>10</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0.24199999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <v>5</v>
+      </c>
+      <c r="G34" s="2">
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <v>10</v>
+      </c>
+      <c r="G35" s="2">
+        <v>1.161</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>125</v>
+      </c>
+      <c r="F36" s="2">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0.94399999999999995</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>127</v>
+      </c>
+      <c r="D37" t="s">
+        <v>128</v>
+      </c>
+      <c r="G37" s="2">
+        <v>1.2509999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="G38" s="2">
+        <v>1.165</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>10</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0.97899999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <v>5</v>
+      </c>
+      <c r="G40" s="2">
+        <v>1.242</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <v>10</v>
+      </c>
+      <c r="G41" s="2">
+        <v>1.4259999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>129</v>
+      </c>
+      <c r="G42" s="2">
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="G43" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>10</v>
+      </c>
+      <c r="G44" s="2">
+        <v>1.0269999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <v>5</v>
+      </c>
+      <c r="G45" s="2">
+        <v>1.3109999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <v>10</v>
+      </c>
+      <c r="G46" s="2">
+        <v>1.4239999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>130</v>
+      </c>
+      <c r="D47" t="s">
+        <v>149</v>
+      </c>
+      <c r="G47" s="2">
+        <v>2.605</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>5</v>
+      </c>
+      <c r="G48" s="2">
+        <v>2.4529999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>10</v>
+      </c>
+      <c r="G49" s="2">
+        <v>2.5569999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <v>5</v>
+      </c>
+      <c r="G50" s="2">
+        <v>2.8450000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <v>10</v>
+      </c>
+      <c r="G51" s="2">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>126</v>
+      </c>
+      <c r="F52" s="2">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="H52" s="2">
+        <v>2.8769999999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>131</v>
+      </c>
+      <c r="D53" t="s">
+        <v>148</v>
+      </c>
+      <c r="G53" s="2">
+        <v>1.212</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>5</v>
+      </c>
+      <c r="G54" s="2">
+        <v>1.175</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>10</v>
+      </c>
+      <c r="G55" s="2">
+        <v>1.0760000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E56">
+        <v>5</v>
+      </c>
+      <c r="G56" s="2">
+        <v>1.365</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E57">
+        <v>10</v>
+      </c>
+      <c r="G57" s="2">
+        <v>1.6020000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>132</v>
+      </c>
+      <c r="F58" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="H58" s="2">
+        <v>2.7120000000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>133</v>
+      </c>
+      <c r="D59" t="s">
+        <v>147</v>
+      </c>
+      <c r="G59" s="2">
+        <v>0.63900000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>5</v>
+      </c>
+      <c r="G60" s="2">
+        <v>0.64800000000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>7</v>
+      </c>
+      <c r="G61" s="2">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>10</v>
+      </c>
+      <c r="G62" s="2">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E63">
+        <v>5</v>
+      </c>
+      <c r="G63" s="2">
+        <v>0.755</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E64">
+        <v>10</v>
+      </c>
+      <c r="G64" s="2">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>20</v>
+      </c>
+      <c r="H65" s="2">
+        <v>2.5419999999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>5</v>
+      </c>
+      <c r="G66" s="2">
+        <v>2.9159999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>10</v>
+      </c>
+      <c r="G67" s="2">
+        <v>3.4350000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E68">
+        <v>5</v>
+      </c>
+      <c r="G68" s="2">
+        <v>2.593</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E69">
+        <v>10</v>
+      </c>
+      <c r="G69" s="2">
+        <v>2.5470000000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F71" s="48"/>
+      <c r="G71" s="48"/>
+      <c r="H71" s="48"/>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" t="s">
+        <v>150</v>
+      </c>
+      <c r="F73" s="2">
+        <v>2.048</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G74" s="2">
+        <v>1.7030000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G75" s="2">
+        <v>1.5409999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G76" s="2">
+        <v>2.2949999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G77" s="2">
+        <v>2.536</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G78" s="2">
+        <v>1.048</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G79" s="2">
+        <v>1.415</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G80" s="2">
+        <v>1.579</v>
+      </c>
+    </row>
+    <row r="81" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G81" s="2">
+        <v>1.0289999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G82" s="2">
+        <v>0.78600000000000003</v>
+      </c>
+    </row>
+    <row r="83" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F83" s="2">
+        <v>2.1019999999999999</v>
+      </c>
+      <c r="H83" s="2">
+        <v>0.67800000000000005</v>
+      </c>
+    </row>
+    <row r="84" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G84" s="2">
+        <v>1.1020000000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G85" s="2">
+        <v>1.306</v>
+      </c>
+    </row>
+    <row r="86" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G86" s="2">
+        <v>1.754</v>
+      </c>
+    </row>
+    <row r="87" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G87" s="2">
+        <v>1.0049999999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G88" s="2">
+        <v>1.032</v>
+      </c>
+    </row>
+    <row r="89" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F89" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="H89" s="2">
+        <v>0.81799999999999995</v>
+      </c>
+    </row>
+    <row r="90" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G90" s="2">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="91" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G91" s="2">
+        <v>0.50900000000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G92" s="2">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G93" s="2">
+        <v>1.7130000000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G94" s="2">
+        <v>2.3210000000000002</v>
+      </c>
+    </row>
+    <row r="95" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F95" s="2">
+        <v>2.4980000000000002</v>
+      </c>
+      <c r="H95" s="2">
+        <v>1.095</v>
+      </c>
+    </row>
+    <row r="96" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G96" s="2">
+        <v>1.4730000000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G97" s="2">
+        <v>0.55200000000000005</v>
+      </c>
+    </row>
+    <row r="98" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G98" s="2">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="99" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G99" s="2">
+        <v>2.2570000000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G100" s="2">
+        <v>2.7709999999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G101" s="2">
+        <v>1.093</v>
+      </c>
+    </row>
+    <row r="102" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G102" s="2">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="103" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G103" s="2">
+        <v>3.1160000000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G104" s="2">
+        <v>0.54900000000000004</v>
+      </c>
+    </row>
+    <row r="105" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G105" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F106" s="2">
+        <v>1.6759999999999999</v>
+      </c>
+      <c r="H106" s="2">
+        <v>1.093</v>
+      </c>
+    </row>
+    <row r="107" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G107" s="2">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="108" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G108" s="2">
+        <v>1.2150000000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G109" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G110" s="2">
+        <v>2.5019999999999998</v>
+      </c>
+    </row>
+    <row r="111" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G111" s="2">
+        <v>3.0630000000000002</v>
+      </c>
+    </row>
+    <row r="112" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F112" s="2">
+        <v>1.145</v>
+      </c>
+      <c r="H112" s="2">
+        <v>1.734</v>
+      </c>
+    </row>
+    <row r="113" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G113" s="2">
+        <v>1.4770000000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G114" s="2">
+        <v>1.2250000000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G115" s="2">
+        <v>2.7650000000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G116" s="2">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="117" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G117" s="2">
+        <v>0.71099999999999997</v>
+      </c>
+    </row>
+    <row r="118" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G118" s="2">
+        <v>0.255</v>
+      </c>
+    </row>
+    <row r="119" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F119" s="2">
+        <v>1.8740000000000001</v>
+      </c>
+      <c r="H119" s="2">
+        <v>1.5920000000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G120" s="2">
+        <v>1.357</v>
+      </c>
+    </row>
+    <row r="121" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G121" s="2">
+        <v>2.7570000000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G122" s="2">
+        <v>3.1230000000000002</v>
+      </c>
+    </row>
+    <row r="123" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G123" s="2">
+        <v>0.874</v>
+      </c>
+    </row>
+    <row r="124" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G124" s="2">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="125" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G125" s="2">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="126" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G126" s="2">
+        <v>2.7839999999999998</v>
+      </c>
+    </row>
+    <row r="127" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G127" s="2">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="128" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F128" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="H128" s="2">
+        <v>0.69499999999999995</v>
+      </c>
+    </row>
+    <row r="129" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G129" s="2">
+        <v>3.1240000000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G130" s="2">
+        <v>4.3019999999999996</v>
+      </c>
+    </row>
+    <row r="131" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G131" s="2">
+        <v>1.673</v>
+      </c>
+    </row>
+    <row r="132" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G132" s="2">
+        <v>1.302</v>
+      </c>
+    </row>
+    <row r="133" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G133" s="2">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="134" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G134" s="2">
+        <v>0.442</v>
+      </c>
+    </row>
+    <row r="135" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G135" s="2">
+        <v>0.86399999999999999</v>
+      </c>
+    </row>
+    <row r="136" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G136" s="2">
+        <v>1.111</v>
+      </c>
+    </row>
+    <row r="137" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G137" s="2">
+        <v>0.84599999999999997</v>
+      </c>
+    </row>
+    <row r="138" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G138" s="2">
+        <v>0.51200000000000001</v>
+      </c>
+    </row>
+    <row r="139" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G139" s="2">
+        <v>1.2270000000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G140" s="2">
+        <v>2.6539999999999999</v>
+      </c>
+    </row>
+    <row r="141" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G141" s="2">
+        <v>3.4689999999999999</v>
+      </c>
+    </row>
+    <row r="142" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G142" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="143" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G143" s="2">
+        <v>0.69699999999999995</v>
+      </c>
+    </row>
+    <row r="144" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G144" s="2">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="145" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G145" s="2">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="146" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G146" s="2">
+        <v>0.44700000000000001</v>
+      </c>
+    </row>
+    <row r="147" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G147" s="2">
+        <v>0.28199999999999997</v>
+      </c>
+    </row>
+    <row r="148" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G148" s="2">
+        <v>2.347</v>
+      </c>
+    </row>
+    <row r="149" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G149" s="2">
+        <v>2.681</v>
+      </c>
+    </row>
+    <row r="150" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F150" s="2">
+        <v>2.2989999999999999</v>
+      </c>
+      <c r="H150" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="151" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G151" s="2">
+        <v>1.2749999999999999</v>
+      </c>
+    </row>
+    <row r="152" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G152" s="2">
+        <v>0.98199999999999998</v>
+      </c>
+    </row>
+    <row r="153" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G153" s="2">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="154" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G154" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="155" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G155" s="2">
+        <v>1.3560000000000001</v>
+      </c>
+    </row>
+    <row r="156" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G156" s="2">
+        <v>1.9350000000000001</v>
+      </c>
+    </row>
+    <row r="157" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G157" s="2">
+        <v>1.901</v>
+      </c>
+    </row>
+    <row r="158" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G158" s="2">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="159" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G159" s="2">
+        <v>2.641</v>
+      </c>
+    </row>
+    <row r="160" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G160" s="2">
+        <v>1.329</v>
+      </c>
+    </row>
+    <row r="161" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G161" s="2">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="162" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G162" s="2">
+        <v>0.54200000000000004</v>
+      </c>
+    </row>
+    <row r="163" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G163" s="2">
+        <v>1.552</v>
+      </c>
+    </row>
+    <row r="164" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G164" s="2">
+        <v>1.8779999999999999</v>
+      </c>
+    </row>
+    <row r="165" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G165" s="2">
+        <v>1.883</v>
+      </c>
+    </row>
+    <row r="166" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G166" s="2">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="167" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G167" s="2">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="168" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F168" s="2">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="H168" s="2">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="169" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G169" s="2">
+        <v>1.5580000000000001</v>
+      </c>
+    </row>
+    <row r="170" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G170" s="2">
+        <v>1.423</v>
+      </c>
+    </row>
+    <row r="171" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G171" s="2">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="172" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G172" s="2">
+        <v>1.339</v>
+      </c>
+    </row>
+    <row r="173" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G173" s="2">
+        <v>2.2120000000000002</v>
+      </c>
+    </row>
+    <row r="174" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G174" s="2">
+        <v>1.3560000000000001</v>
+      </c>
+    </row>
+    <row r="175" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G175" s="2">
+        <v>1.948</v>
+      </c>
+    </row>
+    <row r="176" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G176" s="2">
+        <v>1.028</v>
+      </c>
+    </row>
+    <row r="177" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G177" s="2">
+        <v>0.47899999999999998</v>
+      </c>
+    </row>
+    <row r="178" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G178" s="2">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="179" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F179" s="2">
+        <v>1.452</v>
+      </c>
+      <c r="H179" s="2">
+        <v>2.472</v>
+      </c>
+    </row>
+    <row r="180" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G180" s="2">
+        <v>1.9870000000000001</v>
+      </c>
+    </row>
+    <row r="181" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G181" s="2">
+        <v>1.651</v>
+      </c>
+    </row>
+    <row r="182" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G182" s="2">
+        <v>0.84399999999999997</v>
+      </c>
+    </row>
+    <row r="183" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G183" s="2">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="184" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G184" s="2">
+        <v>0.314</v>
+      </c>
+    </row>
+    <row r="185" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G185" s="2">
+        <v>0.20300000000000001</v>
+      </c>
+    </row>
+    <row r="186" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G186" s="2">
+        <v>2.157</v>
+      </c>
+    </row>
+    <row r="187" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G187" s="2">
+        <v>1.8720000000000001</v>
+      </c>
+    </row>
+    <row r="188" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G188" s="2">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="189" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G189" s="2">
+        <v>2.2669999999999999</v>
+      </c>
+    </row>
+    <row r="190" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G190" s="2">
+        <v>2.4220000000000002</v>
+      </c>
+    </row>
+    <row r="191" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G191" s="2">
+        <v>2.1890000000000001</v>
+      </c>
+    </row>
+    <row r="192" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G192" s="2">
+        <v>2.9009999999999998</v>
+      </c>
+    </row>
+    <row r="193" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G193" s="2">
+        <v>2.2290000000000001</v>
+      </c>
+    </row>
+    <row r="194" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G194" s="2">
+        <v>1.407</v>
+      </c>
+    </row>
+    <row r="195" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G195" s="2">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="196" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G196" s="2">
+        <v>0.60699999999999998</v>
+      </c>
+    </row>
+    <row r="197" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G197" s="2">
+        <v>0.61499999999999999</v>
+      </c>
+    </row>
+    <row r="198" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G198" s="2">
+        <v>0.60699999999999998</v>
+      </c>
+    </row>
+    <row r="199" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G199" s="2">
+        <v>3.2850000000000001</v>
+      </c>
+    </row>
+    <row r="200" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G200" s="2">
+        <v>3.1190000000000002</v>
+      </c>
+    </row>
+    <row r="201" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G201" s="2">
+        <v>3.8690000000000002</v>
+      </c>
+    </row>
+    <row r="202" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G202" s="2">
+        <v>4.0209999999999999</v>
+      </c>
+    </row>
+    <row r="203" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G203" s="2">
+        <v>3.9630000000000001</v>
+      </c>
+    </row>
+    <row r="204" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G204" s="2">
+        <v>3.1429999999999998</v>
+      </c>
+    </row>
+    <row r="205" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G205" s="2">
+        <v>2.4319999999999999</v>
+      </c>
+    </row>
+    <row r="206" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G206" s="2">
+        <v>2.4060000000000001</v>
+      </c>
+    </row>
+    <row r="207" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G207" s="2">
+        <v>2.161</v>
+      </c>
+    </row>
+    <row r="208" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F208" s="2">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="H208" s="2">
+        <v>2.8530000000000002</v>
+      </c>
+    </row>
+    <row r="209" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G209" s="2">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="210" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G210" s="2">
+        <v>1.742</v>
+      </c>
+    </row>
+    <row r="211" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G211" s="2">
+        <v>1.6930000000000001</v>
+      </c>
+    </row>
+    <row r="212" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G212" s="2">
+        <v>2.1720000000000002</v>
+      </c>
+    </row>
+    <row r="213" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G213" s="2">
+        <v>2.1139999999999999</v>
+      </c>
+    </row>
+    <row r="214" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G214" s="2">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="215" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G215" s="2">
+        <v>1.355</v>
+      </c>
+    </row>
+    <row r="216" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G216" s="2">
+        <v>1.2769999999999999</v>
+      </c>
+    </row>
+    <row r="217" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G217" s="2">
+        <v>0.42899999999999999</v>
+      </c>
+    </row>
+    <row r="218" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G218" s="2">
+        <v>1.7829999999999999</v>
+      </c>
+    </row>
+    <row r="219" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G219" s="2">
+        <v>1.6040000000000001</v>
+      </c>
+    </row>
+    <row r="220" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G220" s="2">
+        <v>1.335</v>
+      </c>
+    </row>
+    <row r="221" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G221" s="2">
+        <v>1.1850000000000001</v>
+      </c>
+    </row>
+    <row r="222" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G222" s="2">
+        <v>1.712</v>
+      </c>
+    </row>
+    <row r="223" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G223" s="2">
+        <v>2.0680000000000001</v>
+      </c>
+    </row>
+    <row r="224" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G224" s="2">
+        <v>2.052</v>
+      </c>
+    </row>
+    <row r="225" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G225" s="2">
+        <v>2.754</v>
+      </c>
+    </row>
+    <row r="226" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G226" s="2">
+        <v>2.0619999999999998</v>
+      </c>
+    </row>
+    <row r="227" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G227" s="2">
+        <v>2.1179999999999999</v>
+      </c>
+    </row>
+    <row r="228" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G228" s="2">
+        <v>2.4950000000000001</v>
+      </c>
+    </row>
+    <row r="229" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G229" s="2">
+        <v>3.1720000000000002</v>
+      </c>
+    </row>
+    <row r="230" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G230" s="2">
+        <v>3.1349999999999998</v>
+      </c>
+    </row>
+    <row r="231" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G231" s="2">
+        <v>4.0199999999999996</v>
+      </c>
+    </row>
+    <row r="232" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G232" s="2">
+        <v>4.0220000000000002</v>
+      </c>
+    </row>
+    <row r="233" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G233" s="2">
+        <v>4.6920000000000002</v>
+      </c>
+    </row>
+    <row r="234" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G234" s="2">
+        <v>2.0179999999999998</v>
+      </c>
+    </row>
+    <row r="235" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G235" s="2">
+        <v>1.4730000000000001</v>
+      </c>
+    </row>
+    <row r="236" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F236" s="2">
+        <v>1.742</v>
+      </c>
+      <c r="H236" s="2">
+        <v>2.1419999999999999</v>
+      </c>
+    </row>
+    <row r="237" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F237" s="2">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="H237" s="2">
+        <v>1.179</v>
+      </c>
+    </row>
+    <row r="238" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G238" s="2">
+        <v>2.1629999999999998</v>
+      </c>
+    </row>
+    <row r="239" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G239" s="2">
+        <v>1.7290000000000001</v>
+      </c>
+    </row>
+    <row r="240" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G240" s="2">
+        <v>1.331</v>
+      </c>
+    </row>
+    <row r="241" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G241" s="2">
+        <v>1.548</v>
+      </c>
+    </row>
+    <row r="242" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G242" s="2">
+        <v>2.048</v>
+      </c>
+    </row>
+    <row r="243" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G243" s="2">
+        <v>2.6920000000000002</v>
+      </c>
+    </row>
+    <row r="244" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G244" s="2">
+        <v>3.6829999999999998</v>
+      </c>
+    </row>
+    <row r="245" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G245" s="2">
+        <v>2.5339999999999998</v>
+      </c>
+    </row>
+    <row r="246" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G246" s="2">
+        <v>3.2839999999999998</v>
+      </c>
+    </row>
+    <row r="247" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G247" s="2">
+        <v>4.2560000000000002</v>
+      </c>
+    </row>
+    <row r="248" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G248" s="2">
+        <v>1.6619999999999999</v>
+      </c>
+    </row>
+    <row r="249" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G249" s="2">
+        <v>1.4350000000000001</v>
+      </c>
+    </row>
+    <row r="250" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G250" s="2">
+        <v>2.7320000000000002</v>
+      </c>
+    </row>
+    <row r="251" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G251" s="2">
+        <v>3.3220000000000001</v>
+      </c>
+    </row>
+    <row r="252" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G252" s="2">
+        <v>4.2629999999999999</v>
+      </c>
+    </row>
+    <row r="253" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G253" s="2">
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="254" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G254" s="2">
+        <v>1.6220000000000001</v>
+      </c>
+    </row>
+    <row r="255" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F255" s="2">
+        <v>1.542</v>
+      </c>
+      <c r="H255" s="2">
+        <v>2.7749999999999999</v>
+      </c>
+    </row>
+    <row r="256" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G256" s="2">
+        <v>2.052</v>
+      </c>
+    </row>
+    <row r="257" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G257" s="2">
+        <v>2.8450000000000002</v>
+      </c>
+    </row>
+    <row r="258" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G258" s="2">
+        <v>4.1020000000000003</v>
+      </c>
+    </row>
+    <row r="259" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G259" s="2">
+        <v>1.472</v>
+      </c>
+    </row>
+    <row r="260" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G260" s="2">
+        <v>0.73499999999999999</v>
+      </c>
+    </row>
+    <row r="261" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F261" s="2">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="H261" s="2">
+        <v>2.145</v>
+      </c>
+    </row>
+    <row r="262" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G262" s="2">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="263" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G263" s="2">
+        <v>1.476</v>
+      </c>
+    </row>
+    <row r="264" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G264" s="2">
+        <v>1.103</v>
+      </c>
+    </row>
+    <row r="265" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G265" s="2">
+        <v>0.253</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="L12:R12"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="L3:T4"/>
+    <mergeCell ref="L6:R6"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="B3:J4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>